--- a/output/ADAM_23979285000150.xlsx
+++ b/output/ADAM_23979285000150.xlsx
@@ -856,10 +856,10 @@
         <v>44165</v>
       </c>
       <c r="B43">
-        <v>0.26546274</v>
+        <v>0.2624119199999999</v>
       </c>
       <c r="C43">
-        <v>0.01882828367014433</v>
+        <v>0.01637205828622945</v>
       </c>
     </row>
   </sheetData>

--- a/output/ADAM_23979285000150.xlsx
+++ b/output/ADAM_23979285000150.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ADAM MACRO STRATEGY ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42916</v>
       </c>
@@ -411,455 +405,332 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42947</v>
       </c>
       <c r="B3">
         <v>0.0227931400000001</v>
       </c>
-      <c r="C3">
-        <v>0.0227931400000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42978</v>
       </c>
       <c r="B4">
-        <v>0.04431165000000004</v>
-      </c>
-      <c r="C4">
         <v>0.02103896590467924</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43008</v>
       </c>
       <c r="B5">
-        <v>0.07480148000000009</v>
-      </c>
-      <c r="C5">
         <v>0.02919610252360982</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43039</v>
       </c>
       <c r="B6">
-        <v>0.0812073499999999</v>
-      </c>
-      <c r="C6">
         <v>0.005960049478160201</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43069</v>
       </c>
       <c r="B7">
-        <v>0.0847722099999999</v>
-      </c>
-      <c r="C7">
         <v>0.003297110401626391</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43100</v>
       </c>
       <c r="B8">
-        <v>0.09823307999999997</v>
-      </c>
-      <c r="C8">
         <v>0.01240893698779399</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43131</v>
       </c>
       <c r="B9">
-        <v>0.1681912999999999</v>
-      </c>
-      <c r="C9">
         <v>0.06370070367940461</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43159</v>
       </c>
       <c r="B10">
-        <v>0.1803454</v>
-      </c>
-      <c r="C10">
         <v>0.01040420348961679</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43190</v>
       </c>
       <c r="B11">
-        <v>0.1530574600000001</v>
-      </c>
-      <c r="C11">
         <v>-0.02311860579115221</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43220</v>
       </c>
       <c r="B12">
-        <v>0.1758332199999999</v>
-      </c>
-      <c r="C12">
         <v>0.01975249351406982</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43251</v>
       </c>
       <c r="B13">
-        <v>0.1677974799999999</v>
-      </c>
-      <c r="C13">
         <v>-0.006834081452469887</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43281</v>
       </c>
       <c r="B14">
-        <v>0.14159733</v>
-      </c>
-      <c r="C14">
         <v>-0.02243552537893811</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43312</v>
       </c>
       <c r="B15">
-        <v>0.1540833399999999</v>
-      </c>
-      <c r="C15">
         <v>0.01093731534918696</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43343</v>
       </c>
       <c r="B16">
-        <v>0.15494396</v>
-      </c>
-      <c r="C16">
         <v>0.0007457173760085922</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43373</v>
       </c>
       <c r="B17">
-        <v>0.1551136799999999</v>
-      </c>
-      <c r="C17">
         <v>0.0001469508529226005</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43404</v>
       </c>
       <c r="B18">
-        <v>0.16670173</v>
-      </c>
-      <c r="C18">
         <v>0.01003195633524157</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43434</v>
       </c>
       <c r="B19">
-        <v>0.17140355</v>
-      </c>
-      <c r="C19">
         <v>0.004030010309490129</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43465</v>
       </c>
       <c r="B20">
-        <v>0.1768794899999999</v>
-      </c>
-      <c r="C20">
         <v>0.004674682776913075</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43496</v>
       </c>
       <c r="B21">
-        <v>0.18706336</v>
-      </c>
-      <c r="C21">
         <v>0.008653281909093424</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43524</v>
       </c>
       <c r="B22">
-        <v>0.18655607</v>
-      </c>
-      <c r="C22">
         <v>-0.0004273487137199661</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43555</v>
       </c>
       <c r="B23">
-        <v>0.1952656699999999</v>
-      </c>
-      <c r="C23">
         <v>0.007340234667545076</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43585</v>
       </c>
       <c r="B24">
-        <v>0.20557688</v>
-      </c>
-      <c r="C24">
         <v>0.008626709742278527</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43616</v>
       </c>
       <c r="B25">
-        <v>0.22492051</v>
-      </c>
-      <c r="C25">
         <v>0.01604512355943655</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43646</v>
       </c>
       <c r="B26">
-        <v>0.2075555099999999</v>
-      </c>
-      <c r="C26">
         <v>-0.01417643010973835</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43677</v>
       </c>
       <c r="B27">
-        <v>0.2047335400000001</v>
-      </c>
-      <c r="C27">
         <v>-0.00233692776574701</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43708</v>
       </c>
       <c r="B28">
-        <v>0.23236543</v>
-      </c>
-      <c r="C28">
         <v>0.02293610087422304</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43738</v>
       </c>
       <c r="B29">
-        <v>0.2279052399999999</v>
-      </c>
-      <c r="C29">
         <v>-0.003619210577823551</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43769</v>
       </c>
       <c r="B30">
-        <v>0.22489022</v>
-      </c>
-      <c r="C30">
         <v>-0.002455417488078981</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43799</v>
       </c>
       <c r="B31">
-        <v>0.22381618</v>
-      </c>
-      <c r="C31">
         <v>-0.0008768459266496054</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43830</v>
       </c>
       <c r="B32">
-        <v>0.2148201999999999</v>
-      </c>
-      <c r="C32">
         <v>-0.007350760798080058</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43861</v>
       </c>
       <c r="B33">
-        <v>0.2360320499999999</v>
-      </c>
-      <c r="C33">
         <v>0.01746089668248851</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43890</v>
       </c>
       <c r="B34">
-        <v>0.2540681899999999</v>
-      </c>
-      <c r="C34">
         <v>0.01459196790245043</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43921</v>
       </c>
       <c r="B35">
-        <v>0.27648216</v>
-      </c>
-      <c r="C35">
         <v>0.01787300736812414</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43951</v>
       </c>
       <c r="B36">
-        <v>0.2756318499999999</v>
-      </c>
-      <c r="C36">
         <v>-0.0006661354358451499</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43982</v>
       </c>
       <c r="B37">
-        <v>0.28053442</v>
-      </c>
-      <c r="C37">
         <v>0.003843248347867867</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44012</v>
       </c>
       <c r="B38">
-        <v>0.27105286</v>
-      </c>
-      <c r="C38">
         <v>-0.007404377306781007</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44043</v>
       </c>
       <c r="B39">
-        <v>0.27409244</v>
-      </c>
-      <c r="C39">
         <v>0.002391387561961889</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44074</v>
       </c>
       <c r="B40">
-        <v>0.26126874</v>
-      </c>
-      <c r="C40">
         <v>-0.01006496828440484</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44104</v>
       </c>
       <c r="B41">
-        <v>0.2348877</v>
-      </c>
-      <c r="C41">
         <v>-0.0209162719754713</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44135</v>
       </c>
       <c r="B42">
-        <v>0.24207657</v>
-      </c>
-      <c r="C42">
         <v>0.005821476722134289</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>44165</v>
       </c>
       <c r="B43">
-        <v>0.2624119199999999</v>
-      </c>
-      <c r="C43">
-        <v>0.01637205828622945</v>
+        <v>0.01348698655510416</v>
       </c>
     </row>
   </sheetData>
